--- a/biology/Médecine/FSTL1/FSTL1.xlsx
+++ b/biology/Médecine/FSTL1/FSTL1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La FSTL1 ou Follistatine-like 1, aussi appelé TSC-36, est une glycoprotéine dont la structure est proche de celle de la follistatine. 
 </t>
@@ -511,11 +523,13 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est sécrété par le cœur et aurait une action anti-apoptose[1]. Sur un modèle animal, elle limiterait la survenue d'une hypertrophie ventriculaire gauche en cas de surcharge de pression, probablement en jouant sur la voie de l'AMPK (protéine kinase AMP-dépendante)[2]. De même, elle limiterait les lésions en cas d'ischémie myocardique expérimentale[3].
-Il est exprimé également dans le muscle squelettique et stimulerait la formation de vaisseaux sanguins angiogenèse en cas de stress ischémique faisant intervenir la voie du NO[4].
-Son récepteur cardiaque serait le DIP2A (Disco-interacting protein 2 homolog A)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est sécrété par le cœur et aurait une action anti-apoptose. Sur un modèle animal, elle limiterait la survenue d'une hypertrophie ventriculaire gauche en cas de surcharge de pression, probablement en jouant sur la voie de l'AMPK (protéine kinase AMP-dépendante). De même, elle limiterait les lésions en cas d'ischémie myocardique expérimentale.
+Il est exprimé également dans le muscle squelettique et stimulerait la formation de vaisseaux sanguins angiogenèse en cas de stress ischémique faisant intervenir la voie du NO.
+Son récepteur cardiaque serait le DIP2A (Disco-interacting protein 2 homolog A).
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son taux s'élève en cas d'insuffisance cardiaque et se normalise après récupération. Au niveau cellulaire, il est exprimé dans les cardiomyocytes, les cellules musculaires lisses des vaisseaux et l'endothélium[6].
-Son taux sanguin peut être mesuré et il est élevé lors d'un syndrome coronarien aigu[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son taux s'élève en cas d'insuffisance cardiaque et se normalise après récupération. Au niveau cellulaire, il est exprimé dans les cardiomyocytes, les cellules musculaires lisses des vaisseaux et l'endothélium.
+Son taux sanguin peut être mesuré et il est élevé lors d'un syndrome coronarien aigu.
 </t>
         </is>
       </c>
